--- a/Documentacion/MEF Funciones - Descripcion de Estados.xlsx
+++ b/Documentacion/MEF Funciones - Descripcion de Estados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Agustín\Documents\MEGAsync\Facultad\2021\Segundo semestre\Taller 1\Projects\TP1\T1-TP1\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16937CD-8620-4087-AE32-B1020030F840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A82FCF-3550-4564-9BDA-3155EFAA083C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2685" windowWidth="19440" windowHeight="15000" xr2:uid="{A2BAAD8B-E166-4723-A5A7-E8E115F14A37}"/>
   </bookViews>
